--- a/DataScience Project/Papers/分工.xlsx
+++ b/DataScience Project/Papers/分工.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Desktop\PythonDataAnalyze\DataScience Project\Papers\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF5B4004-4BD3-4D5F-8987-9AFBE88F2366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0EAC501-293F-45FE-8D94-313FDB10BA10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1920" yWindow="4710" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -387,16 +387,16 @@
   <dimension ref="A1:B4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9" customWidth="1"/>
-    <col min="2" max="2" width="43.6640625" customWidth="1"/>
+    <col min="1" max="1" width="20.109375" customWidth="1"/>
+    <col min="2" max="2" width="51.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -404,7 +404,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -412,7 +412,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>3</v>
       </c>
@@ -420,7 +420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>4</v>
       </c>
